--- a/数据整理/stocks/A股/创业板/300990-同飞股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300990-同飞股份.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -545,7 +546,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -556,17 +557,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -576,13 +597,141 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>006010</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国融融银灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006009</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国融融银灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.30</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>1</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>0.42</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300990-同飞股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300990-同飞股份.xlsx
@@ -6,9 +6,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,91 +452,65 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005598</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发中小盘精选混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>13.96</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.57</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.02</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.4216</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.42</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -678,64 +652,90 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.42</v>
+          <t>005598</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4216</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300990-同飞股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300990-同飞股份.xlsx
@@ -7,8 +7,9 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,14 +484,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D2" t="n">
-        <v>0.02</v>
+        <v>2.42</v>
       </c>
     </row>
     <row r="3">
@@ -499,13 +500,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>1</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.42</v>
       </c>
     </row>
@@ -515,6 +532,516 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008638</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>38.22</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7275</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>013533</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2753</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001672</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国寿安保智慧生活股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.24</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1529</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001088</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华宝国策导向混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.58</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0691</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>376510</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>上投摩根大盘蓝筹股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.13</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0659</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>015769</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>天弘低碳经济混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>79.16</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0465</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>015770</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>天弘低碳经济混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>79.16</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007388</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>上投摩根研究驱动股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>81.26</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007142</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉合稳健增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007141</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉合稳健增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007389</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>上投摩根研究驱动股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>81.26</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>016401</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>上投摩根大盘蓝筹股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.13</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -646,7 +1173,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300990-同飞股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300990-同飞股份.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>2.42</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02</v>
+        <v>2.42</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>1</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.42</v>
       </c>
     </row>
@@ -532,6 +549,366 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>015769</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>天弘低碳经济混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.07</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0535</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>015770</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘低碳经济混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.07</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0473</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>015429</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中银证券专精特新股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>61.04</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011351</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>金鹰年年邮益一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>39.17</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007046</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>方正富邦创新动力混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.11</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>730001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>方正富邦创新动力混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.11</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>015430</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中银证券专精特新股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>61.04</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011352</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>金鹰年年邮益一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>39.17</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1041,7 +1418,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1173,7 +1550,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
